--- a/files/ganttplan.xlsx
+++ b/files/ganttplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Studium\07 - WS 19-20\Systementwicklungsmethodik 2\Projekt\sem2_dispenser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Studium\07 - WS 19-20\Systementwicklungsmethodik 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF140FC6-A98F-4BA9-BD2C-592607F2A88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8424EF81-5CF4-47E3-8CAA-43434004EBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{146644D5-C93B-49D8-ADCA-537920F3E446}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{146644D5-C93B-49D8-ADCA-537920F3E446}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>Oktober</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>25. Jan.</t>
-  </si>
-  <si>
-    <t>02. Feb.</t>
   </si>
   <si>
     <t>07. Feb.</t>
@@ -343,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -362,6 +359,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -371,11 +390,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -389,27 +405,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +439,56 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
@@ -468,13 +516,165 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>360815</xdr:colOff>
+      <xdr:colOff>386014</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17546</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rechteck 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4230F5A-A812-4B5E-9E3A-894531474C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6868027" y="2892960"/>
+          <a:ext cx="955006" cy="147019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>391027</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>21871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>375986</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rechteck 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80B4832-B295-462F-9CB3-78F7BE8F6618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6873040" y="2698897"/>
+          <a:ext cx="2601828" cy="147019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>175318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>360813</xdr:colOff>
+      <xdr:colOff>332013</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>9666</xdr:rowOff>
     </xdr:to>
@@ -491,8 +691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7231953" y="5837766"/>
-          <a:ext cx="735722" cy="215348"/>
+          <a:off x="6504214" y="5748804"/>
+          <a:ext cx="723899" cy="215348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -537,7 +737,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>5954</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>230064</xdr:rowOff>
     </xdr:to>
@@ -554,8 +754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3636819" y="550518"/>
-          <a:ext cx="3240124" cy="186103"/>
+          <a:off x="4462120" y="470944"/>
+          <a:ext cx="2382742" cy="186103"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -608,14 +808,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>26378</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>37392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>716017</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1642</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>223495</xdr:rowOff>
     </xdr:to>
@@ -632,8 +832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7613533" y="2527030"/>
-          <a:ext cx="4315708" cy="186103"/>
+          <a:off x="6879772" y="2448578"/>
+          <a:ext cx="2608770" cy="186103"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -919,7 +1119,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>146958</xdr:colOff>
+      <xdr:colOff>234043</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>169840</xdr:rowOff>
     </xdr:to>
@@ -936,8 +1136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3632490" y="795808"/>
-          <a:ext cx="1411184" cy="149021"/>
+          <a:off x="4466237" y="717505"/>
+          <a:ext cx="682706" cy="149021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,7 +1269,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25674</xdr:colOff>
+      <xdr:colOff>5443</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>15376</xdr:rowOff>
     </xdr:from>
@@ -1092,8 +1292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5104231" y="1171365"/>
-          <a:ext cx="1537291" cy="149021"/>
+          <a:off x="5159829" y="1093062"/>
+          <a:ext cx="1300841" cy="149021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1147,13 +1347,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25675</xdr:colOff>
+      <xdr:colOff>10885</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
+      <xdr:colOff>157843</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>168727</xdr:rowOff>
     </xdr:to>
@@ -1170,8 +1370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5098418" y="1364092"/>
-          <a:ext cx="752654" cy="149021"/>
+          <a:off x="5165271" y="1287892"/>
+          <a:ext cx="527958" cy="149021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,13 +1737,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>7170</xdr:colOff>
+      <xdr:colOff>7171</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370115</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>168727</xdr:rowOff>
     </xdr:to>
@@ -1560,8 +1760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6891840" y="2317136"/>
-          <a:ext cx="712920" cy="149021"/>
+          <a:off x="6495057" y="2240392"/>
+          <a:ext cx="362944" cy="149021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1615,13 +1815,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>729155</xdr:colOff>
+      <xdr:colOff>379613</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>187431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2836</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>387910</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>157655</xdr:rowOff>
     </xdr:to>
@@ -1638,8 +1838,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7600293" y="2296069"/>
-          <a:ext cx="9405" cy="3524034"/>
+          <a:off x="6861626" y="2217760"/>
+          <a:ext cx="8297" cy="3509513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1729,13 +1929,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>5953</xdr:colOff>
+      <xdr:colOff>1850</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>177343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>8417</xdr:colOff>
+      <xdr:colOff>8418</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152524</xdr:rowOff>
     </xdr:to>
@@ -1754,8 +1954,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14192250" y="4993421"/>
-          <a:ext cx="2464" cy="814572"/>
+          <a:off x="10609979" y="4912629"/>
+          <a:ext cx="6568" cy="813381"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1782,158 +1982,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>24702</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>18414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2037</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>165433</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rechteck 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80B4832-B295-462F-9CB3-78F7BE8F6618}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7614623" y="2770638"/>
-          <a:ext cx="4323743" cy="147019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="63500">
-            <a:schemeClr val="accent3">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>26707</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15407</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>711868</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>162426</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rechteck 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4230F5A-A812-4B5E-9E3A-894531474C5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7616628" y="2958131"/>
-          <a:ext cx="1402043" cy="147019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="63500">
-            <a:schemeClr val="accent3">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2096,8 +2144,8 @@
       <xdr:rowOff>24430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -2114,8 +2162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11927372" y="3807216"/>
-          <a:ext cx="319058" cy="147019"/>
+          <a:off x="8995928" y="3727564"/>
+          <a:ext cx="394328" cy="147019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2319,13 +2367,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>23843</xdr:colOff>
+      <xdr:colOff>23842</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>29873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>10885</xdr:colOff>
+      <xdr:colOff>25065</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
@@ -2342,8 +2390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13015943" y="4650859"/>
-          <a:ext cx="683728" cy="147019"/>
+          <a:off x="9724303" y="4571794"/>
+          <a:ext cx="462433" cy="147019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2394,8 +2442,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>12957</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>24430</xdr:rowOff>
     </xdr:from>
@@ -2418,8 +2466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13369728" y="4835916"/>
-          <a:ext cx="558543" cy="147019"/>
+          <a:off x="10196763" y="4756851"/>
+          <a:ext cx="231464" cy="147019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2546,281 +2594,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>446668</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>130897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>307462</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>111964</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rechteck 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FBF118-530F-4C30-BE4A-3B3B937BF24E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9545844" y="6361368"/>
-          <a:ext cx="1351177" cy="171567"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="63500">
-            <a:schemeClr val="accent3">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>noch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> nicht gestartet</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89260</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>148375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219866</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rechteck 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C12CA-997D-412C-ABB1-373FC26E60FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5748231" y="6378846"/>
-          <a:ext cx="1352047" cy="162685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="63500">
-            <a:schemeClr val="accent3">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>abgeschlossen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>44698</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133979</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>27315</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>121819</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rechteck 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A041F82D-1BCA-478B-ADAE-DC066C921A6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7776757" y="6364450"/>
-          <a:ext cx="1349734" cy="178340"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="63500">
-            <a:schemeClr val="accent3">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>fertigzustellen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>195975</xdr:colOff>
+      <xdr:colOff>174171</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>181477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>366766</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>15825</xdr:rowOff>
     </xdr:to>
@@ -2837,8 +2618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3237406" y="5843925"/>
-          <a:ext cx="735722" cy="215348"/>
+          <a:off x="4093028" y="5754963"/>
+          <a:ext cx="718458" cy="215348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2876,8 +2657,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>400092</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152524</xdr:rowOff>
     </xdr:from>
@@ -2900,8 +2681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13824389" y="5807993"/>
-          <a:ext cx="735722" cy="215348"/>
+          <a:off x="10238014" y="5726010"/>
+          <a:ext cx="743929" cy="215348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2942,226 +2723,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177363</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Gerader Verbinder 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97032F7-3BC7-4BD4-9BC0-80758A71B432}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5077811" y="6569"/>
-          <a:ext cx="6568" cy="5471948"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>734785</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3402</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>187100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Gerader Verbinder 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26A71F5-B102-4FF1-A05B-6E99A5A1AAB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7599589" y="0"/>
-          <a:ext cx="3402" cy="2289404"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>758428</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>40</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Gerader Verbinder 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D6FB4E-143A-478C-B008-B962FCFAF903}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10450116" y="0"/>
-          <a:ext cx="3612" cy="5464969"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>4082</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>7694</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Gerader Verbinder 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E596DD2-D144-4663-B223-B699BE067381}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13208453" y="0"/>
-          <a:ext cx="3612" cy="5459186"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3880</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3188,61 +2749,6 @@
         <a:xfrm>
           <a:off x="3421674" y="0"/>
           <a:ext cx="1931" cy="5468471"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>759527</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>283</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Gerader Verbinder 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9546AE-2F4C-4765-BA34-45199D68FA94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="15071875" y="0"/>
-          <a:ext cx="2473" cy="5450240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3323,6 +2829,448 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>315310</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="659861" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B8D894-8BB1-419F-BA11-28E638BE70EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6779172" y="420414"/>
+          <a:ext cx="659861" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>29. Nov.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>210553</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>240631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639855" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Textfeld 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5BE2C0-721D-4C17-8FDB-6D5A5CA487B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10141619" y="4516855"/>
+          <a:ext cx="639855" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>02. Feb.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>72197</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639855" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Textfeld 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138EB005-5420-4082-995F-E4D5E4D1A9B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9637302" y="4694321"/>
+          <a:ext cx="639855" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>02. Feb.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103276</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276638</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rechteck 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64166079-B093-4FFA-96AA-8AA34B9F8575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6986124" y="6251530"/>
+          <a:ext cx="1390905" cy="162685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>noch nicht</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> gestartet</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123865</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173461</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rechteck 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A08E2BA-909B-47F9-9926-313AA0E038D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5275648" y="6256972"/>
+          <a:ext cx="1374813" cy="162685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fertigzustellen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>374372</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16937</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rechteck 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1493627-378C-40CF-A988-C00245D0762F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554894" y="6262598"/>
+          <a:ext cx="1373630" cy="162685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>abgeschlossen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3625,1036 +3573,1035 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F84A89-AC31-48C9-854F-8EB51E889CD9}">
-  <dimension ref="A1:AB32"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="1.28515625" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" customWidth="1"/>
-    <col min="21" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1"/>
-    <col min="24" max="24" width="2.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="17" width="6.42578125" customWidth="1"/>
+    <col min="18" max="19" width="3.42578125" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" customWidth="1"/>
+    <col min="21" max="21" width="2.140625" customWidth="1"/>
+    <col min="22" max="22" width="2" customWidth="1"/>
+    <col min="23" max="24" width="3.42578125" customWidth="1"/>
+    <col min="25" max="25" width="3.140625" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="15" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="12" t="s">
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
     </row>
     <row r="2" spans="1:28" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
+      <c r="B2" s="11"/>
+      <c r="F2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="AA2" s="22"/>
     </row>
     <row r="3" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="3"/>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="8" t="s">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4" t="s">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4" t="s">
+      <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4" t="s">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="5" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26" t="s">
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25" t="s">
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="3"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4" t="s">
+      <c r="A14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="6" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4" t="s">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="2"/>
+    </row>
+    <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="2"/>
     </row>
-    <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="24" t="s">
+    <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="2"/>
+    </row>
+    <row r="19" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="2"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="2"/>
+    </row>
+    <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="3"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="W22" s="18"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="2"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="2"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+    <row r="25" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="3"/>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="37"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-    </row>
-    <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB25" s="3"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB26" s="3"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4665,12 +4612,12 @@
     <mergeCell ref="Z29:AA29"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="F8:H8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="7.874015748031496E-2" footer="7.874015748031496E-2"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/files/ganttplan.xlsx
+++ b/files/ganttplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Studium\07 - WS 19-20\Systementwicklungsmethodik 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Studium\07 - WS 19-20\Systementwicklungsmethodik 2\Projekt\sem2_dispenser\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8424EF81-5CF4-47E3-8CAA-43434004EBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D232BC-39C6-4609-BAF2-15C89009B441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{146644D5-C93B-49D8-ADCA-537920F3E446}"/>
   </bookViews>
@@ -390,7 +390,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,12 +439,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -455,21 +449,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,12 +469,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
@@ -3579,7 +3592,7 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,49 +3623,49 @@
       <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="29" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="31" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="28"/>
     </row>
     <row r="2" spans="1:28" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
-      <c r="F2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="AA2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="AA2" s="20"/>
     </row>
     <row r="3" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -3666,28 +3679,28 @@
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="23"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
-      <c r="Q3" s="23"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
-      <c r="X3" s="23"/>
+      <c r="X3" s="21"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
-      <c r="AA3" s="23"/>
+      <c r="AA3" s="21"/>
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -3702,7 +3715,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="24"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3711,21 +3724,21 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="24"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="22"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="24"/>
+      <c r="X4" s="22"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="24"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -3740,30 +3753,30 @@
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="24"/>
+      <c r="Q5" s="22"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="24"/>
+      <c r="X5" s="22"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="24"/>
+      <c r="AA5" s="22"/>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -3776,7 +3789,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2"/>
@@ -3787,21 +3800,21 @@
         <v>13</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="24"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="24"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="22"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="24"/>
+      <c r="AA6" s="22"/>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -3814,7 +3827,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2"/>
@@ -3825,21 +3838,21 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="24"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="24"/>
+      <c r="Q7" s="22"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="24"/>
+      <c r="X7" s="22"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="24"/>
+      <c r="AA7" s="22"/>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -3852,32 +3865,32 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="24"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="24"/>
+      <c r="Q8" s="22"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="22"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="24"/>
+      <c r="AA8" s="22"/>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -3890,7 +3903,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3899,23 +3912,23 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="24"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="22"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="24"/>
+      <c r="AA9" s="22"/>
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3928,7 +3941,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3939,21 +3952,21 @@
       <c r="L10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="24"/>
+      <c r="Q10" s="22"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="22"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="24"/>
+      <c r="AA10" s="22"/>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -3968,7 +3981,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3977,23 +3990,23 @@
         <v>45</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="22" t="s">
         <v>46</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="24"/>
+      <c r="Q11" s="22"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="22"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="24"/>
+      <c r="AA11" s="22"/>
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4006,7 +4019,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4015,23 +4028,23 @@
       <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="24"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="24"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="24"/>
+      <c r="X12" s="22"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="24"/>
+      <c r="AA12" s="22"/>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -4044,20 +4057,20 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="24" t="s">
         <v>18</v>
       </c>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="21"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
       <c r="T13" s="18" t="s">
@@ -4066,10 +4079,10 @@
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
-      <c r="X13" s="23"/>
+      <c r="X13" s="21"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
-      <c r="AA13" s="23"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4082,20 +4095,20 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="24"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="5" t="s">
@@ -4104,10 +4117,10 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="24"/>
+      <c r="X14" s="22"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="24"/>
+      <c r="AA14" s="22"/>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4120,14 +4133,14 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="23" t="s">
         <v>18</v>
       </c>
       <c r="N15" s="2"/>
@@ -4135,17 +4148,17 @@
       <c r="P15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="24"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="24"/>
+      <c r="X15" s="22"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="24"/>
+      <c r="AA15" s="22"/>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4158,20 +4171,20 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="24"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="24"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
@@ -4180,10 +4193,10 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="22"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="24"/>
+      <c r="AA16" s="22"/>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -4196,18 +4209,18 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
-      <c r="Q17" s="23"/>
+      <c r="Q17" s="21"/>
       <c r="R17" s="18"/>
       <c r="S17" s="19" t="s">
         <v>21</v>
@@ -4218,10 +4231,10 @@
       <c r="W17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="X17" s="23"/>
+      <c r="X17" s="21"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
-      <c r="AA17" s="23"/>
+      <c r="AA17" s="21"/>
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,18 +4247,18 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="24"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="24"/>
+      <c r="Q18" s="22"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3" t="s">
         <v>21</v>
@@ -4256,10 +4269,10 @@
         <v>23</v>
       </c>
       <c r="W18" s="2"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="22"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="24"/>
+      <c r="AA18" s="22"/>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4272,18 +4285,18 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="24"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="24"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="24"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="2"/>
       <c r="S19" s="3" t="s">
         <v>21</v>
@@ -4294,10 +4307,10 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="22"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="24"/>
+      <c r="AA19" s="22"/>
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -4310,18 +4323,18 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="24"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="24"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="24"/>
+      <c r="Q20" s="22"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="3" t="s">
@@ -4332,10 +4345,10 @@
         <v>23</v>
       </c>
       <c r="W20" s="2"/>
-      <c r="X20" s="24"/>
+      <c r="X20" s="22"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="24"/>
+      <c r="AA20" s="22"/>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,18 +4361,18 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="24"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="24"/>
+      <c r="M21" s="22"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="24"/>
+      <c r="Q21" s="22"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -4370,10 +4383,10 @@
       <c r="W21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X21" s="24"/>
+      <c r="X21" s="22"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="24"/>
+      <c r="AA21" s="22"/>
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -4386,18 +4399,18 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="23"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="23"/>
+      <c r="Q22" s="21"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
@@ -4406,12 +4419,12 @@
         <v>24</v>
       </c>
       <c r="W22" s="18"/>
-      <c r="X22" s="23"/>
+      <c r="X22" s="21"/>
       <c r="Y22" s="18"/>
       <c r="Z22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" s="23"/>
+      <c r="AA22" s="21"/>
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -4424,18 +4437,18 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="24"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="24"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="24"/>
+      <c r="Q23" s="22"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -4444,9 +4457,9 @@
         <v>24</v>
       </c>
       <c r="W23" s="2"/>
-      <c r="X23" s="24"/>
+      <c r="X23" s="22"/>
       <c r="Y23" s="2"/>
-      <c r="AA23" s="24"/>
+      <c r="AA23" s="22"/>
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -4459,30 +4472,30 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="24"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="24"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="24"/>
+      <c r="Q24" s="22"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="24"/>
+      <c r="X24" s="22"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AA24" s="24"/>
+      <c r="AA24" s="22"/>
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -4495,68 +4508,68 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
-      <c r="M25" s="23"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
-      <c r="Q25" s="23"/>
+      <c r="Q25" s="21"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
-      <c r="X25" s="23"/>
+      <c r="X25" s="21"/>
       <c r="Y25" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Z25" s="18"/>
-      <c r="AA25" s="23" t="s">
+      <c r="AA25" s="21" t="s">
         <v>25</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="3" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="24" t="s">
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="41" t="s">
         <v>25</v>
       </c>
       <c r="AB26" s="2"/>
@@ -4582,21 +4595,21 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="37"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="26"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
